--- a/Excels/Excel1.xlsx
+++ b/Excels/Excel1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarolahoz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarolahoz/Desktop/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BAE4D1-AB9B-F24C-86CE-8D229880CB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{77C5080C-9BE1-CC4C-A428-877B741F8F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{AB4263D0-F0CE-A948-AB31-B56816F22FD3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Excel1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>imptot</t>
   </si>
@@ -46,9 +46,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>cif    </t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>002</t>
+  </si>
+  <si>
+    <t>cif</t>
+  </si>
+  <si>
+    <t>8254656A</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -124,9 +127,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -443,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1546EF-0869-CF4C-B665-CA7D985A0B70}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -462,36 +464,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>45432</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -508,25 +510,48 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>45434</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
         <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>
